--- a/public/tables/plans_2024.xlsx
+++ b/public/tables/plans_2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8154264d77b5cb3/Ambiente de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\tmc\public\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3323F226-2470-4623-A13C-F6E8450749FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3A9D94-7F76-4FD5-AB7E-3E0205CE13CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A069E4F1-DB39-4176-9509-6DE7CA538D83}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>ValidUntil</t>
-  </si>
-  <si>
     <t>Review</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Valid Until</t>
   </si>
 </sst>
 </file>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -103,7 +103,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +442,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,15 +458,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>400</v>
@@ -475,12 +475,12 @@
         <v>48194</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>150</v>
@@ -489,12 +489,12 @@
         <v>45906</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>600</v>
@@ -503,7 +503,7 @@
         <v>69763</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
